--- a/biology/Botanique/Friedrich_Adalbert_Maximilian_Kuhn/Friedrich_Adalbert_Maximilian_Kuhn.xlsx
+++ b/biology/Botanique/Friedrich_Adalbert_Maximilian_Kuhn/Friedrich_Adalbert_Maximilian_Kuhn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Adalbert Maximilian Kuhn, né le 3 septembre 1842 à Berlin et mort le 13 décembre 1894 à Friedenau, est un botaniste prussien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une scolarité au lycée de Cölln de Berlin, il a étudié les sciences naturelles à l'université de Berlin, en particulier sous la direction d'Alexander Braun.
 Encore étudiant à l'université, il participa en 1865 à une expédition scientifique botanique dans les Carpates sous la direction de Paul Ascherson.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Filices Deckenianae. Lipsiae : Typis Breitkop &amp; Haertelii, 1867, 26 p. (en latin) (document numérisé)
 Reliquiae Mettenianae, s. filices quaedam novae ex variis orbis terrarum partibus collectae post mortem auctoris editae. Berlin : August Garcke, volume 35, 1867/1868: 385–394 et volume 36, 1869/1870 : p. 41–169 (document partiellement numérisé).
